--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B389E35B-D569-43D4-A314-157562F198B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8C668B8-FEC6-4702-B0E9-EB85BF83EFC2}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>TASK NO</t>
   </si>
@@ -42,13 +36,58 @@
   </si>
   <si>
     <t>DISCRIPTION</t>
+  </si>
+  <si>
+    <t>Creation of User DTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains User details who sells old books  </t>
+  </si>
+  <si>
+    <t>Contains attribute of id, name, email, phone_number, address, List&lt;Books&gt; with onetomany relationship</t>
+  </si>
+  <si>
+    <t>It has annotation of Entity and Id and GeneratedValue for primery key</t>
+  </si>
+  <si>
+    <t>Creation of Book DTO</t>
+  </si>
+  <si>
+    <t>Contains List of books sold by User</t>
+  </si>
+  <si>
+    <t>Contains attribute of id, Category, Name, Author, Price, Publication</t>
+  </si>
+  <si>
+    <t>Creation of order Dto</t>
+  </si>
+  <si>
+    <t>Contains Order details</t>
+  </si>
+  <si>
+    <t>id, name, email, phone_number, address, List&lt;Books&gt; with onetomany relationship, totalcost</t>
+  </si>
+  <si>
+    <t>Creation of   Products</t>
+  </si>
+  <si>
+    <t>Contains Product details</t>
+  </si>
+  <si>
+    <t>Contains attribute of id, Category, Name, Author, Price, Publication, List&lt;Books&gt; with onetomany relationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation of repositery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an interface responsible for crud operations performing on dto by extending JPA repositery </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -73,12 +112,168 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,7 +334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -191,7 +386,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -385,36 +580,151 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E647D55-9192-48DF-980A-40C64DCEA2A9}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>TASK NO</t>
   </si>
@@ -81,13 +81,40 @@
   </si>
   <si>
     <t xml:space="preserve">This is an interface responsible for crud operations performing on dto by extending JPA repositery </t>
+  </si>
+  <si>
+    <t>Creation of UserDao</t>
+  </si>
+  <si>
+    <t>Creation of BookDao</t>
+  </si>
+  <si>
+    <t>Creation of OrderDao</t>
+  </si>
+  <si>
+    <t>It has all the methods which will help in performing CRUD Operation on database with respect to Book</t>
+  </si>
+  <si>
+    <t>It has all the methods which will help in performing CRUD Operation on database with respect to Order</t>
+  </si>
+  <si>
+    <t>It has all the methods which will help in performing CRUD Operation on database with respect to User</t>
+  </si>
+  <si>
+    <t>It has saveUser() method,updateUser()method,findUserById() method,deleteUser() method all these methods are there.It has annotation of @Repository.</t>
+  </si>
+  <si>
+    <t>It has saveBook() method,updateBook()method,findBookById() method,deleteBook() method all these methods are there.It has annotation of @Repository.</t>
+  </si>
+  <si>
+    <t>It has saveOrder() method,updateOrder()method,findOrderById() method,deleteOrder() method all these methods are there.It has annotation of @Repository.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,43 +263,43 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,29 +607,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,110 +640,110 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:3">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:3">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="14" spans="1:3">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
         <v>4</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -725,6 +752,59 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
